--- a/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
+++ b/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CTY TNHH TM TRUNG TRANG</t>
   </si>
@@ -51,13 +51,28 @@
   </si>
   <si>
     <t>Ngày</t>
+  </si>
+  <si>
+    <t>Số Điện thoại</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Loại xe</t>
+  </si>
+  <si>
+    <t>Số khung</t>
+  </si>
+  <si>
+    <t>Số máy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,11 +108,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="6"/>
       <color indexed="14"/>
@@ -106,12 +116,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -177,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -192,18 +196,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -493,15 +490,19 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -513,34 +514,34 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -553,18 +554,38 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -572,5 +593,6 @@
     <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
+++ b/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\quanlynhaxe\MuoiCu_Server\controllers\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\quanlynhaxe\MuoiCu_Server\controllers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CTY TNHH TM TRUNG TRANG</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>Số máy</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Tỉnh/TP</t>
+  </si>
+  <si>
+    <t>Số km</t>
+  </si>
+  <si>
+    <t>Tiền công</t>
+  </si>
+  <si>
+    <t>Tiền phụ tùng</t>
+  </si>
+  <si>
+    <t>Yêu cầu sữa chữa</t>
+  </si>
+  <si>
+    <t>Hạng mục kiểm tra lần tới</t>
   </si>
 </sst>
 </file>
@@ -487,33 +511,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="15" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -527,8 +554,14 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -542,8 +575,14 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -553,29 +592,53 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="Q6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -585,12 +648,20 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
+++ b/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CTY TNHH TM TRUNG TRANG</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Hạng mục kiểm tra lần tới</t>
+  </si>
+  <si>
+    <t>Nhân vân sữa chữa</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,11 +530,12 @@
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="15" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +544,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -560,8 +564,9 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -581,8 +586,9 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -632,13 +638,16 @@
         <v>6</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -657,11 +666,12 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
+++ b/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\quanlynhaxe\MuoiCu_Server\controllers\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\quanlynhaxe\MuoiCu_Server\controllers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D91A1-9B73-4D34-9824-9968AC2F5405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CTY TNHH TM TRUNG TRANG</t>
   </si>
@@ -93,12 +94,15 @@
   </si>
   <si>
     <t>Nhân vân sữa chữa</t>
+  </si>
+  <si>
+    <t>Ngày hẹn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +240,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +537,10 @@
     <col min="17" max="17" width="24.140625" customWidth="1"/>
     <col min="18" max="18" width="21.42578125" customWidth="1"/>
     <col min="19" max="19" width="20.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +549,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -566,7 +571,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -588,7 +593,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -646,8 +651,11 @@
       <c r="S6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="T6" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -667,6 +675,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
+++ b/MuoiCu_Server/controllers/excel/maukhachhang.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\quanlynhaxe\MuoiCu_Server\controllers\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thithieu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D91A1-9B73-4D34-9824-9968AC2F5405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A911EC7-B516-F747-8900-9DDD5C3E99DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CTY TNHH TM TRUNG TRANG</t>
   </si>
@@ -97,6 +108,9 @@
   </si>
   <si>
     <t>Ngày hẹn</t>
+  </si>
+  <si>
+    <t>Loại khách hàng</t>
   </si>
 </sst>
 </file>
@@ -114,6 +128,7 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -214,27 +229,27 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,38 +533,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="15" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="16" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -570,8 +585,9 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -592,8 +608,9 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -604,58 +621,61 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -671,16 +691,17 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
